--- a/KCOR_simplified_Czech_data.xlsx
+++ b/KCOR_simplified_Czech_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24E1B8C-F329-42FE-902E-49B3D9F5656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF8B5D8-B7BB-4E88-86D1-2FCCEB5A7372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B0A3727-7EFD-4AFF-B4BD-EAE44F456855}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Week of death</t>
   </si>
@@ -63,12 +63,6 @@
   </si>
   <si>
     <t>norm factor</t>
-  </si>
-  <si>
-    <t>v/u cum deaths baseline</t>
-  </si>
-  <si>
-    <t>v/u total deaths</t>
   </si>
   <si>
     <t>during the 8 week basline period following 3 week HVE</t>
@@ -119,9 +113,6 @@
     <t>Unvax (normalized)</t>
   </si>
   <si>
-    <t>fit.</t>
-  </si>
-  <si>
     <t>Change the norm factor from .9728 to 1.2 to verify the slope</t>
   </si>
   <si>
@@ -159,6 +150,33 @@
   </si>
   <si>
     <t>So you can manipulate the scaling factor (in red) which is designed to equalize the starting death sizes of the cohorts.</t>
+  </si>
+  <si>
+    <t>Pearson correlation coefficient</t>
+  </si>
+  <si>
+    <t>this maximizes the Pearson correlation coefficient so slope matches (use norm factor 1.35 to verify). 1.0013 gives a peason coefficient of .915</t>
+  </si>
+  <si>
+    <t>d2/u cum deaths baseline</t>
+  </si>
+  <si>
+    <t>d2/u total deaths</t>
+  </si>
+  <si>
+    <t>d2/u deaths until end of 2022</t>
+  </si>
+  <si>
+    <t>31% Net harm!</t>
+  </si>
+  <si>
+    <t>Using 0.9728 for the norm factor (cell E1) makes this 1 (8 week baseline after 3 week delay)</t>
+  </si>
+  <si>
+    <t>d2/d1 ratio during baseline</t>
+  </si>
+  <si>
+    <t>d2/d1 cum ratio during baseline</t>
   </si>
 </sst>
 </file>
@@ -292,6 +310,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.216434565932423"/>
+          <c:y val="0"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -328,6 +354,1074 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Czech all ages'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>One dose</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Czech all ages'!$A$2:$A$175</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Czech all ages'!$A$3:$A$175</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="173"/>
+                <c:pt idx="0">
+                  <c:v>44368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44382</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44389</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44410</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44424</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44438</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44452</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44529</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44536</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44543</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44550</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44557</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44564</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44571</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44578</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44585</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44592</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44599</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44606</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44613</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44620</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44627</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44634</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44641</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44648</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44655</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44662</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44669</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44676</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44683</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44690</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44697</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44802</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44809</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44816</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44823</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44830</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44837</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44844</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44858</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44865</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44872</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44879</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44886</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44893</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44900</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44907</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44914</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44921</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44935</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44942</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44949</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44956</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44963</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44970</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44977</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44984</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44991</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45005</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45012</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45019</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45026</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45033</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45040</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45047</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45054</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45061</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45068</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45075</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45082</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45089</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45096</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45103</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45110</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45117</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45124</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45131</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45138</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45145</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45152</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45159</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45166</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45173</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45180</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45187</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45194</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45201</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45208</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>45222</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45229</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>45236</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>45243</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>45250</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>45257</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>45264</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>45271</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>45285</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>45299</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>45306</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>45313</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>45320</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>45327</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45334</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>45341</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45348</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45355</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>45362</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>45369</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45376</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45383</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>45390</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>45397</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>45404</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>45411</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>45418</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>45425</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45432</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>45439</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45446</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>45453</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>45460</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45467</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>45474</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>45481</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>45488</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>45495</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>45502</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>45509</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>45516</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>45523</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>45530</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'Czech all ages'!$C$2:$C$175</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'Czech all ages'!$C$3:$C$175</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="173"/>
+                <c:pt idx="0">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72DF-4931-94B1-88ACFB07DEA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
@@ -867,24 +1961,6 @@
                 <c:pt idx="166">
                   <c:v>45530</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>45537</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>45544</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>45551</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>45558</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>45565</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>45572</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1401,24 +2477,6 @@
                 </c:pt>
                 <c:pt idx="166">
                   <c:v>773</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>520</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>524</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,24 +3028,6 @@
                 <c:pt idx="166">
                   <c:v>45530</c:v>
                 </c:pt>
-                <c:pt idx="167">
-                  <c:v>45537</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>45544</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>45551</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>45558</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>45565</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>45572</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2005,523 +3045,505 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="173"/>
                 <c:pt idx="0">
-                  <c:v>921.31845119999991</c:v>
+                  <c:v>920.49108480000007</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>869.60567523327995</c:v>
+                  <c:v>868.04452238848012</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>908.72972310453929</c:v>
+                  <c:v>906.2837367284485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>879.32448268518419</c:v>
+                  <c:v>876.17011573839568</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>854.70320089221264</c:v>
+                  <c:v>850.87236602278517</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>866.44066586207168</c:v>
+                  <c:v>861.78262553128025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>807.09825308547556</c:v>
+                  <c:v>802.03834401095878</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>863.32682249602681</c:v>
+                  <c:v>857.14397386086523</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>842.40480979149629</c:v>
+                  <c:v>835.62071515117543</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>775.64348444165989</c:v>
+                  <c:v>768.70609802482943</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>787.31592446778325</c:v>
+                  <c:v>779.57343410549583</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>808.02512376810682</c:v>
+                  <c:v>799.36048806581641</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>879.87224076206257</c:v>
+                  <c:v>869.65549844198449</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>884.81754317191564</c:v>
+                  <c:v>873.75801663292827</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>825.43464896895682</c:v>
+                  <c:v>814.38536687844271</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>818.18208455506817</c:v>
+                  <c:v>806.50497332347436</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>892.68985623734363</c:v>
+                  <c:v>879.15915262721023</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>964.48534677237069</c:v>
+                  <c:v>949.01341937547659</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1044.7066432018132</c:v>
+                  <c:v>1027.0247124084835</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1136.4578519992683</c:v>
+                  <c:v>1116.2197147472807</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1284.6387412737868</c:v>
+                  <c:v>1260.628693447859</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1439.5920496205158</c:v>
+                  <c:v>1411.4172800607225</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1507.2228589269646</c:v>
+                  <c:v>1476.3974301269736</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1579.2462143880314</c:v>
+                  <c:v>1545.55858116134</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1598.1366653719547</c:v>
+                  <c:v>1562.6415197257802</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1517.1924307207034</c:v>
+                  <c:v>1482.1628686830852</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1383.2386561110029</c:v>
+                  <c:v>1350.0883718619009</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1333.5203103791659</c:v>
+                  <c:v>1300.3927271751636</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1230.6989630400265</c:v>
+                  <c:v>1199.0479466052936</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1161.7089029892525</c:v>
+                  <c:v>1130.8157544990013</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1012.2229445650318</c:v>
+                  <c:v>984.42022554598782</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1007.1441263544931</c:v>
+                  <c:v>978.60130949056156</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1167.3011246327874</c:v>
+                  <c:v>1133.2008457733425</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1155.193408774096</c:v>
+                  <c:v>1120.4397451378841</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1170.3417471692981</c:v>
+                  <c:v>1134.1129736138944</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1105.5317091236304</c:v>
+                  <c:v>1070.3471153532964</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1073.1421569759289</c:v>
+                  <c:v>1038.0553545100106</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1039.5472148830031</c:v>
+                  <c:v>1004.6557958907264</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>962.34534143460542</c:v>
+                  <c:v>929.20992713148428</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1053.6859043791578</c:v>
+                  <c:v>1016.4918026833273</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1044.2942914463558</c:v>
+                  <c:v>1006.5270064801473</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>975.11197690439303</c:v>
+                  <c:v>939.00269043012679</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>923.79676246290524</c:v>
+                  <c:v>888.78885377846916</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>870.10791858373011</c:v>
+                  <c:v>836.38281803491384</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>870.94823709327864</c:v>
+                  <c:v>836.43874856079981</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>923.44955526309536</c:v>
+                  <c:v>886.06339093133283</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>853.21163767969369</c:v>
+                  <c:v>817.93389418598963</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>776.17406947774839</c:v>
+                  <c:v>743.41339509781778</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>739.96263037618291</c:v>
+                  <c:v>708.09390752829643</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>773.07828739687181</c:v>
+                  <c:v>739.11899543331685</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>796.54251636030074</c:v>
+                  <c:v>760.86860996241899</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>777.57414037712726</c:v>
+                  <c:v>742.08274319368718</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>782.56370167734246</c:v>
+                  <c:v>746.17387762138105</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>863.15202423878998</c:v>
+                  <c:v>822.27569285737945</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>754.17513784452183</c:v>
+                  <c:v>717.81443580496273</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>772.3372559676003</c:v>
+                  <c:v>734.44077349228462</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>872.16921761140554</c:v>
+                  <c:v>828.62945481450049</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>867.4577396507816</c:v>
+                  <c:v>823.41307002278268</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>841.67932672011477</c:v>
+                  <c:v>798.22607048471014</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>897.91657392403852</c:v>
+                  <c:v>850.79524392165695</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>870.9708633779527</c:v>
+                  <c:v>824.52249749004375</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>861.73901716656201</c:v>
+                  <c:v>815.05038725099814</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>756.37876935825398</c:v>
+                  <c:v>714.75606470212858</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>920.40056688182017</c:v>
+                  <c:v>868.97086191416611</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>841.62905851182506</c:v>
+                  <c:v>793.8873394476775</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>931.20262925436828</c:v>
+                  <c:v>877.59100985981138</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>961.42915170052527</c:v>
+                  <c:v>905.26363777929066</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1017.7648423759367</c:v>
+                  <c:v>957.44768222517223</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1001.890647781143</c:v>
+                  <c:v>941.66786051906502</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>917.86745653092146</c:v>
+                  <c:v>861.92050988568531</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>927.84623014486567</c:v>
+                  <c:v>870.50860487466741</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>871.76952361048529</c:v>
+                  <c:v>817.16274943219173</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>843.99346514984916</c:v>
+                  <c:v>790.4161046846657</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>844.70566315372935</c:v>
+                  <c:v>790.37267992979412</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>926.86141546752754</c:v>
+                  <c:v>866.46522065890508</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>974.88568437272215</c:v>
+                  <c:v>910.54170591337379</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>983.94338405436804</c:v>
+                  <c:v>918.17629746689408</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1041.5333368481938</c:v>
+                  <c:v>971.04411456855769</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1169.9631729504895</c:v>
+                  <c:v>1089.8024868166178</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1286.1954846206304</c:v>
+                  <c:v>1196.9951791541769</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1162.3310321792569</c:v>
+                  <c:v>1080.7495697809534</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1067.0375549722469</c:v>
+                  <c:v>991.25356250704874</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>991.16582632818199</c:v>
+                  <c:v>919.94358201465445</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>879.85451842387522</c:v>
+                  <c:v>815.8974211081246</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>938.07467911107199</c:v>
+                  <c:v>869.10434867613321</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>926.03636675403959</c:v>
+                  <c:v>857.18067156447114</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>925.71812989094701</c:v>
+                  <c:v>856.11659271558244</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>900.60667119545474</c:v>
+                  <c:v>832.14521919885999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>915.60041486892999</c:v>
+                  <c:v>845.23945501897197</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>876.120529383247</c:v>
+                  <c:v>808.06715607681781</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>891.11772112438098</c:v>
+                  <c:v>821.161343078198</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>903.79511827218494</c:v>
+                  <c:v>832.0955990580901</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>886.68921788743228</c:v>
+                  <c:v>815.61363799643107</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>859.93554867552905</c:v>
+                  <c:v>790.2941585287607</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>861.82740688261526</c:v>
+                  <c:v>791.32154093484826</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>849.30801531943553</c:v>
+                  <c:v>779.12605433826275</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>803.01940707177266</c:v>
+                  <c:v>736.00093132296752</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>896.48580956090939</c:v>
+                  <c:v>820.92892844457242</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>785.99966476751445</c:v>
+                  <c:v>719.10832898184083</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>832.56881475171087</c:v>
+                  <c:v>761.03024255252058</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>801.60743472365164</c:v>
+                  <c:v>732.0712140215046</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>780.24362494289085</c:v>
+                  <c:v>711.92073201580092</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>836.85596004615752</c:v>
+                  <c:v>762.89003599321563</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>826.47113873904243</c:v>
+                  <c:v>752.74648993446738</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>876.07530073912994</c:v>
+                  <c:v>797.20919846973118</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>811.69197551174784</c:v>
+                  <c:v>737.95849238145092</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>792.55618369208867</c:v>
+                  <c:v>719.9139000657733</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>814.03396399922281</c:v>
+                  <c:v>738.75909964233995</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>808.40824927711174</c:v>
+                  <c:v>732.99476386758522</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>719.75305849270319</c:v>
+                  <c:v>652.02383601256304</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>761.06589299605901</c:v>
+                  <c:v>688.82996432120399</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>808.77839261732913</c:v>
+                  <c:v>731.35650591946819</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>929.02383120832303</c:v>
+                  <c:v>839.3367933630567</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>843.58481403350663</c:v>
+                  <c:v>761.46154839763688</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>738.97779758279171</c:v>
+                  <c:v>666.43904379589151</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>802.11130109024703</c:v>
+                  <c:v>722.72569474450165</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>827.77836062103404</c:v>
+                  <c:v>745.18267089384437</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>856.07605194039184</c:v>
+                  <c:v>769.9647511861981</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>822.57964938848909</c:v>
+                  <c:v>739.1733051415963</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>921.89773935680591</c:v>
+                  <c:v>827.67698887721679</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>921.38765637684298</c:v>
+                  <c:v>826.47617509198039</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>897.97628747925035</c:v>
+                  <c:v>804.75305709151189</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>903.7759932521227</c:v>
+                  <c:v>809.22331213966447</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>910.87439522112652</c:v>
+                  <c:v>814.84667227588579</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>909.03731614633273</c:v>
+                  <c:v>812.47298849142999</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>961.08008659598465</c:v>
+                  <c:v>858.2160187732045</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>961.90848887089294</c:v>
+                  <c:v>858.18439425769304</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1018.154415991528</c:v>
+                  <c:v>907.54950111828896</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1077.2264464042983</c:v>
+                  <c:v>959.34208747058926</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>951.44282166785968</c:v>
+                  <c:v>846.56245282429404</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1087.1607680866575</c:v>
+                  <c:v>966.45113007192549</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1051.847243576547</c:v>
+                  <c:v>934.21883160105551</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1013.7669928858581</c:v>
+                  <c:v>899.58852893931089</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>924.58364322790032</c:v>
+                  <c:v>819.71293029700257</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>988.13048597240993</c:v>
+                  <c:v>875.26526923068297</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>991.61603446279639</c:v>
+                  <c:v>877.56391290727981</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>983.28121312762391</c:v>
+                  <c:v>869.40628307348732</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1018.3804087950509</c:v>
+                  <c:v>899.63198287388536</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>916.31418746689997</c:v>
+                  <c:v>808.74028989576368</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>879.95605521866355</c:v>
+                  <c:v>775.95309619783552</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>795.6919926677997</c:v>
+                  <c:v>701.01819719358741</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>905.09725458364403</c:v>
+                  <c:v>796.69000616468088</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>855.14067078571725</c:v>
+                  <c:v>752.0409712729371</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>836.99810221795406</c:v>
+                  <c:v>735.42473143896598</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>830.81232581275856</c:v>
+                  <c:v>729.33407752677613</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>812.5280329070938</c:v>
+                  <c:v>712.64254487520441</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>833.12816607142486</c:v>
+                  <c:v>730.05407213497722</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>849.77487308259583</c:v>
+                  <c:v>743.97255302023063</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>750.41881784259579</c:v>
+                  <c:v>656.39696171247431</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>803.47018904614845</c:v>
+                  <c:v>702.17026077525918</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>802.52658499921483</c:v>
+                  <c:v>700.71579900950519</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>802.93354189248635</c:v>
+                  <c:v>700.44154926181852</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>822.40067240867768</c:v>
+                  <c:v>716.77949654588633</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>833.76205600257254</c:v>
+                  <c:v>726.02915619808437</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>798.67145367439366</c:v>
+                  <c:v>694.84816457457759</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>768.9048044853763</c:v>
+                  <c:v>668.35029639171626</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>848.89228546192669</c:v>
+                  <c:v>737.2146805672046</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>803.95429048240555</c:v>
+                  <c:v>697.56159682319446</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>696.72964025743283</c:v>
+                  <c:v>603.98382805484187</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>806.11288258748016</c:v>
+                  <c:v>698.17887346387238</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>710.88454162378309</c:v>
+                  <c:v>615.14816051059972</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>734.66910321349519</c:v>
+                  <c:v>635.15870233935755</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>755.77118857396351</c:v>
+                  <c:v>652.81575406096897</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>693.26821535699196</c:v>
+                  <c:v>598.28952859484411</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>654.25214032515862</c:v>
+                  <c:v>564.11166746797619</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>644.48309340936328</c:v>
+                  <c:v>555.18954233421994</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>615.01004091763127</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>406.6870438566458</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>392.06826293484517</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>292.57797954839378</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>294.63818081887564</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>132.02708551899508</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>28.455386044545563</c:v>
+                  <c:v>529.32422710389881</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3095,24 +4117,6 @@
                       <c:pt idx="166">
                         <c:v>45530</c:v>
                       </c:pt>
-                      <c:pt idx="167">
-                        <c:v>45537</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>45544</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>45551</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>45558</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>45565</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>45572</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -3632,24 +4636,6 @@
                       <c:pt idx="166">
                         <c:v>438</c:v>
                       </c:pt>
-                      <c:pt idx="167">
-                        <c:v>289</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>278</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>207</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>208</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>20</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3657,1121 +4643,6 @@
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-72DF-4931-94B1-88ACFB07DEA7}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredLineSeries>
-            <c15:filteredLineSeries>
-              <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Czech all ages'!$C$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                      <c:pt idx="0">
-                        <c:v>One dose</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="28575" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent2"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:cat>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Czech all ages'!$A$2:$A$175</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'Czech all ages'!$A$3:$A$175</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>m/d/yyyy</c:formatCode>
-                      <c:ptCount val="173"/>
-                      <c:pt idx="0">
-                        <c:v>44368</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>44375</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>44382</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>44389</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>44396</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>44403</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>44410</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>44417</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>44424</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>44431</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>44438</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>44445</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>44452</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>44459</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>44466</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>44473</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>44480</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>44487</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>44494</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>44501</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>44508</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>44515</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>44522</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>44529</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>44536</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>44543</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>44550</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>44557</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>44564</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>44571</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>44578</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>44585</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>44592</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>44599</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>44606</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>44613</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>44620</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>44627</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>44634</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>44641</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>44648</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>44655</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>44662</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>44669</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>44676</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>44683</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>44690</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>44697</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>44704</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>44711</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>44718</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>44725</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>44732</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>44739</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>44746</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>44753</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>44760</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>44767</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>44774</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>44781</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>44788</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>44795</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>44802</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>44809</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>44816</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>44823</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>44830</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>44837</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>44844</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>44851</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>44858</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>44865</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>44872</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>44879</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>44886</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>44893</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>44900</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>44907</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>44914</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>44921</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>44928</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>44935</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>44942</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>44949</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>44956</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>44963</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>44970</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>44977</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>44984</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>44991</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>44998</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>45005</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>45012</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>45019</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>45026</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>45033</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>45040</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>45047</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>45054</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>45061</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>45068</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>45075</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>45082</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>45089</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>45096</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>45103</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>45110</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>45117</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>45124</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>45131</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>45138</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>45145</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>45152</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>45159</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>45166</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>45173</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>45180</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>45187</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>45194</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>45201</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>45208</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>45215</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>45222</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>45229</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>45236</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>45243</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>45250</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>45257</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>45264</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>45271</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>45278</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>45285</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>45292</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>45299</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>45306</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>45313</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>45320</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>45327</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>45334</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>45341</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>45348</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>45355</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>45362</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>45369</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>45376</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>45383</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>45390</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>45397</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>45404</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>45411</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>45418</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>45425</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>45432</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>45439</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>45446</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>45453</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>45460</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>45467</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>45474</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>45481</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>45488</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>45495</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>45502</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>45509</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>45516</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>45523</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>45530</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>45537</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>45544</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>45551</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>45558</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>45565</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>45572</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:fullRef>
-                          <c15:sqref>'Czech all ages'!$C$2:$C$175</c15:sqref>
-                        </c15:fullRef>
-                        <c15:formulaRef>
-                          <c15:sqref>'Czech all ages'!$C$3:$C$175</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="173"/>
-                      <c:pt idx="0">
-                        <c:v>318</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>254</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>277</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>278</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>297</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>291</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>291</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>276</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>298</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>294</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>319</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>304</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>302</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>333</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>314</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>325</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>336</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>343</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>367</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>367</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>439</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>407</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>432</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>398</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>381</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>370</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>327</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>336</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>329</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>329</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>348</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>362</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>339</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>338</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>311</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>345</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>321</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>369</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>363</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>357</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>364</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>343</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>340</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>358</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>327</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>325</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>327</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>310</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>328</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>288</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>288</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>352</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>296</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>344</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>319</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>332</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>316</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>293</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>368</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>344</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>350</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>340</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>334</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>313</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>312</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>365</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>351</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>342</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>363</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>386</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>435</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>414</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>487</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>441</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>394</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>398</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>362</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>350</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>351</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>382</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>351</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>355</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>385</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>322</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>361</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>305</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>312</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>378</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>343</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>324</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>314</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>329</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>306</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>328</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>307</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>339</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>326</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>321</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>301</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>333</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>291</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>357</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>374</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>290</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>307</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>341</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>297</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>328</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>403</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>399</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>382</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>365</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>328</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>391</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>376</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>360</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>430</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>384</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>370</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>372</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>359</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>341</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>395</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>400</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>377</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>416</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>350</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>399</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>342</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>302</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>340</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>318</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>296</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>309</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>309</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>299</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>329</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>286</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>293</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>307</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>267</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>327</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>284</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>282</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>287</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>232</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>233</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>223</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>232</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>147</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>3</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-72DF-4931-94B1-88ACFB07DEA7}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -5325,24 +5196,6 @@
                       <c:pt idx="166">
                         <c:v>45530</c:v>
                       </c:pt>
-                      <c:pt idx="167">
-                        <c:v>45537</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>45544</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>45551</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>45558</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>45565</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>45572</c:v>
-                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:cat>
@@ -5362,523 +5215,505 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="173"/>
                       <c:pt idx="0">
-                        <c:v>0.97494015999999994</c:v>
+                        <c:v>0.97406464000000004</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.97708502835199995</c:v>
+                        <c:v>0.97533092403200017</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.97923461541437429</c:v>
+                        <c:v>0.97659885423324189</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>0.98138893156828588</c:v>
+                        <c:v>0.97786843274374513</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>0.98354798721773606</c:v>
+                        <c:v>0.97913966170631206</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>0.98571179278961507</c:v>
+                        <c:v>0.98041254326653038</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>0.98788035873375224</c:v>
+                        <c:v>0.9816870795727769</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>0.99005369552296651</c:v>
+                        <c:v>0.98296327277622164</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>0.99223181365311697</c:v>
+                        <c:v>0.98424112503083083</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>0.99441472364315375</c:v>
+                        <c:v>0.98552063849337102</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>0.99660243603516863</c:v>
+                        <c:v>0.98680181532341249</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>0.99879496139444601</c:v>
+                        <c:v>0.98808465768333298</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>1.0009923103095137</c:v>
+                        <c:v>0.9893691677383214</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>1.0031944933921946</c:v>
+                        <c:v>0.9906553476563813</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>1.0054015212776575</c:v>
+                        <c:v>0.99194319960833466</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>1.0076134046244682</c:v>
+                        <c:v>0.99323272576782562</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>1.0098301541146422</c:v>
+                        <c:v>0.99452392831132386</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>1.0120517804536944</c:v>
+                        <c:v>0.99581680941812867</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>1.0142782943706925</c:v>
+                        <c:v>0.9971113712703723</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>1.016509706618308</c:v>
+                        <c:v>0.99840761605302386</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>1.0187460279728682</c:v>
+                        <c:v>0.99970554595389283</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>1.0209872692344084</c:v>
+                        <c:v>1.001005163163633</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>1.0232334412267241</c:v>
+                        <c:v>1.0023064698757458</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>1.025484554797423</c:v>
+                        <c:v>1.0036094682865844</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>1.0277406208179773</c:v>
+                        <c:v>1.0049141605953571</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>1.030001650183777</c:v>
+                        <c:v>1.0062205490041312</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>1.0322676538141813</c:v>
+                        <c:v>1.0075286357178366</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>1.0345386426525724</c:v>
+                        <c:v>1.0088384229442697</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>1.0368146276664081</c:v>
+                        <c:v>1.0101499128940974</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>1.0390956198472741</c:v>
+                        <c:v>1.0114631077808598</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>1.041381630210938</c:v>
+                        <c:v>1.0127780098209751</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>1.0436726697974021</c:v>
+                        <c:v>1.0140946212337425</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>1.0459687496709564</c:v>
+                        <c:v>1.0154129442413464</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>1.0482698809202324</c:v>
+                        <c:v>1.0167329810688603</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>1.0505760746582569</c:v>
+                        <c:v>1.0180547339442498</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>1.0528873420225051</c:v>
+                        <c:v>1.0193782050983775</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>1.0552036941749545</c:v>
+                        <c:v>1.0207033967650054</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>1.0575251423021395</c:v>
+                        <c:v>1.0220303111808</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>1.0598516976152041</c:v>
+                        <c:v>1.0233589505853351</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>1.0621833713499576</c:v>
+                        <c:v>1.024689317221096</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>1.0645201747669275</c:v>
+                        <c:v>1.0260214133334835</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>1.0668621191514147</c:v>
+                        <c:v>1.0273552411708171</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>1.0692092158135478</c:v>
+                        <c:v>1.0286908029843393</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>1.0715614760883376</c:v>
+                        <c:v>1.0300281010282191</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>1.0739189113357319</c:v>
+                        <c:v>1.0313671375595559</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>1.0762815329406705</c:v>
+                        <c:v>1.0327079148383833</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>1.07864935231314</c:v>
+                        <c:v>1.0340504351276734</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>1.0810223808882289</c:v>
+                        <c:v>1.0353947006933395</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>1.0834006301261829</c:v>
+                        <c:v>1.0367407138042408</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>1.0857841115124605</c:v>
+                        <c:v>1.0380884767321865</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>1.0881728365577878</c:v>
+                        <c:v>1.0394379917519385</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>1.090566816798215</c:v>
+                        <c:v>1.0407892611412162</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>1.092966063795171</c:v>
+                        <c:v>1.0421422871806998</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>1.0953705891355203</c:v>
+                        <c:v>1.0434970721540349</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>1.0977804044316184</c:v>
+                        <c:v>1.0448536183478352</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>1.1001955213213679</c:v>
+                        <c:v>1.0462119280516875</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>1.102615951468275</c:v>
+                        <c:v>1.0475720035581548</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>1.1050417065615052</c:v>
+                        <c:v>1.0489338471627805</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>1.1074727983159405</c:v>
+                        <c:v>1.0502974611640923</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>1.1099092384722355</c:v>
+                        <c:v>1.0516628478636056</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>1.1123510387968745</c:v>
+                        <c:v>1.0530300095658285</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>1.1147982110822277</c:v>
+                        <c:v>1.0543989485782641</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>1.1172507671466085</c:v>
+                        <c:v>1.0557696672114159</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>1.1197087188343311</c:v>
+                        <c:v>1.0571421677787909</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>1.1221720780157667</c:v>
+                        <c:v>1.0585164525969033</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>1.1246408565874013</c:v>
+                        <c:v>1.0598925239852794</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>1.1271150664718936</c:v>
+                        <c:v>1.0612703842664604</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>1.1295947196181317</c:v>
+                        <c:v>1.0626500357660069</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>1.1320798280012916</c:v>
+                        <c:v>1.0640314808125029</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>1.1345704036228943</c:v>
+                        <c:v>1.0654147217375591</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>1.1370664585108647</c:v>
+                        <c:v>1.066799760875818</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>1.1395680047195886</c:v>
+                        <c:v>1.0681866005649565</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>1.1420750543299718</c:v>
+                        <c:v>1.0695752431456911</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>1.1445876194494977</c:v>
+                        <c:v>1.0709656909617806</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>1.1471057122122865</c:v>
+                        <c:v>1.072357946360031</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>1.1496293447791535</c:v>
+                        <c:v>1.0737520116902992</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>1.1521585293376675</c:v>
+                        <c:v>1.0751478893054967</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>1.1546932781022103</c:v>
+                        <c:v>1.0765455815615939</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>1.1572336033140351</c:v>
+                        <c:v>1.077945090817624</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>1.1597795172413259</c:v>
+                        <c:v>1.079346419435687</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>1.1623310321792568</c:v>
+                        <c:v>1.0807495697809535</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>1.1648881604500512</c:v>
+                        <c:v>1.0821545442216689</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>1.1674509144030412</c:v>
+                        <c:v>1.0835613451291572</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>1.1700193064147277</c:v>
+                        <c:v>1.0849699748778252</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>1.17259334888884</c:v>
+                        <c:v>1.0863804358451665</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>1.1751730542563954</c:v>
+                        <c:v>1.0877927304117654</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>1.1777584349757595</c:v>
+                        <c:v>1.0892068609613008</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>1.1803495035327061</c:v>
+                        <c:v>1.0906228298805505</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>1.182946272440478</c:v>
+                        <c:v>1.0920406395593953</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>1.1855487542398471</c:v>
+                        <c:v>1.0934602923908225</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>1.1881569614991747</c:v>
+                        <c:v>1.0948817907709307</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>1.190770906814473</c:v>
+                        <c:v>1.096305137098933</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>1.1933906028094647</c:v>
+                        <c:v>1.0977303337771616</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>1.1960160621356455</c:v>
+                        <c:v>1.0991573832110719</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>1.1986472974723439</c:v>
+                        <c:v>1.1005862878092465</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>1.201284321526783</c:v>
+                        <c:v>1.1020170499833986</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>1.2039271470341419</c:v>
+                        <c:v>1.1034496721483771</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>1.206575786757617</c:v>
+                        <c:v>1.1048841567221701</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>1.2092302534884838</c:v>
+                        <c:v>1.1063205061259089</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>1.2118905600461585</c:v>
+                        <c:v>1.1077587227838728</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>1.21455671927826</c:v>
+                        <c:v>1.1091988091234919</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>1.2172287440606722</c:v>
+                        <c:v>1.1106407675753525</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>1.2199066472976057</c:v>
+                        <c:v>1.1120846005732006</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>1.2225904419216604</c:v>
+                        <c:v>1.1135303105539458</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>1.225280140893888</c:v>
+                        <c:v>1.1149778999576661</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>1.2279757572038545</c:v>
+                        <c:v>1.1164273712276112</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>1.230677303869703</c:v>
+                        <c:v>1.1178787268102071</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>1.2333847939382163</c:v>
+                        <c:v>1.1193319691550605</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>1.2360982404848804</c:v>
+                        <c:v>1.1207871007149621</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>1.238817656613947</c:v>
+                        <c:v>1.1222441239458916</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>1.2415430554584976</c:v>
+                        <c:v>1.1237030413070213</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>1.2442744501805063</c:v>
+                        <c:v>1.1251638552607204</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>1.2470118539709034</c:v>
+                        <c:v>1.1266265682725594</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>1.2497552800496394</c:v>
+                        <c:v>1.1280911828113138</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>1.2525047416657487</c:v>
+                        <c:v>1.1295577013489686</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>1.2552602520974132</c:v>
+                        <c:v>1.1310261263607224</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>1.2580218246520274</c:v>
+                        <c:v>1.1324964603249914</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>1.2607894726662618</c:v>
+                        <c:v>1.133968705723414</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>1.2635632095061275</c:v>
+                        <c:v>1.1354428650408546</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>1.2663430485670411</c:v>
+                        <c:v>1.1369189407654077</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>1.2691290032738884</c:v>
+                        <c:v>1.1383969353884027</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>1.2719210870810911</c:v>
+                        <c:v>1.1398768514044078</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>1.2747193134726695</c:v>
+                        <c:v>1.1413586913112335</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>1.2775236959623093</c:v>
+                        <c:v>1.1428424576099381</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>1.2803342480934263</c:v>
+                        <c:v>1.144328152804831</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>1.2831509834392318</c:v>
+                        <c:v>1.1458157794034773</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>1.2859739156027981</c:v>
+                        <c:v>1.1473053399167019</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>1.2888030582171242</c:v>
+                        <c:v>1.1487968368585937</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>1.2916384249452018</c:v>
+                        <c:v>1.1502902727465099</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>1.2944800294800811</c:v>
+                        <c:v>1.1517856501010804</c:v>
                       </c:pt>
                       <c:pt idx="130">
-                        <c:v>1.2973278855449373</c:v>
+                        <c:v>1.1532829714462118</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>1.300182006893136</c:v>
+                        <c:v>1.1547822393090921</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>1.3030424073083009</c:v>
+                        <c:v>1.156283456220194</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>1.305909100604379</c:v>
+                        <c:v>1.1577866247132804</c:v>
                       </c:pt>
                       <c:pt idx="134">
-                        <c:v>1.3087821006257085</c:v>
+                        <c:v>1.1592917473254079</c:v>
                       </c:pt>
                       <c:pt idx="135">
-                        <c:v>1.3116614212470852</c:v>
+                        <c:v>1.1607988265969309</c:v>
                       </c:pt>
                       <c:pt idx="136">
-                        <c:v>1.3145470763738287</c:v>
+                        <c:v>1.1623078650715071</c:v>
                       </c:pt>
                       <c:pt idx="137">
-                        <c:v>1.3174390799418512</c:v>
+                        <c:v>1.1638188652961001</c:v>
                       </c:pt>
                       <c:pt idx="138">
-                        <c:v>1.3203374459177233</c:v>
+                        <c:v>1.1653318298209852</c:v>
                       </c:pt>
                       <c:pt idx="139">
-                        <c:v>1.3232421882987422</c:v>
+                        <c:v>1.1668467611997526</c:v>
                       </c:pt>
                       <c:pt idx="140">
-                        <c:v>1.3261533211129994</c:v>
+                        <c:v>1.1683636619893123</c:v>
                       </c:pt>
                       <c:pt idx="141">
-                        <c:v>1.3290708584194479</c:v>
+                        <c:v>1.1698825347498985</c:v>
                       </c:pt>
                       <c:pt idx="142">
-                        <c:v>1.3319948143079707</c:v>
+                        <c:v>1.1714033820450733</c:v>
                       </c:pt>
                       <c:pt idx="143">
-                        <c:v>1.3349252028994483</c:v>
+                        <c:v>1.1729262064417321</c:v>
                       </c:pt>
                       <c:pt idx="144">
-                        <c:v>1.3378620383458271</c:v>
+                        <c:v>1.1744510105101065</c:v>
                       </c:pt>
                       <c:pt idx="145">
-                        <c:v>1.3408053348301878</c:v>
+                        <c:v>1.1759777968237697</c:v>
                       </c:pt>
                       <c:pt idx="146">
-                        <c:v>1.3437551065668143</c:v>
+                        <c:v>1.1775065679596406</c:v>
                       </c:pt>
                       <c:pt idx="147">
-                        <c:v>1.3467113678012612</c:v>
+                        <c:v>1.1790373264979883</c:v>
                       </c:pt>
                       <c:pt idx="148">
-                        <c:v>1.349674132810424</c:v>
+                        <c:v>1.1805700750224357</c:v>
                       </c:pt>
                       <c:pt idx="149">
-                        <c:v>1.3526434159026068</c:v>
+                        <c:v>1.182104816119965</c:v>
                       </c:pt>
                       <c:pt idx="150">
-                        <c:v>1.3556192314175926</c:v>
+                        <c:v>1.1836415523809209</c:v>
                       </c:pt>
                       <c:pt idx="151">
-                        <c:v>1.3586015937267113</c:v>
+                        <c:v>1.1851802863990162</c:v>
                       </c:pt>
                       <c:pt idx="152">
-                        <c:v>1.3615905172329101</c:v>
+                        <c:v>1.186721020771335</c:v>
                       </c:pt>
                       <c:pt idx="153">
-                        <c:v>1.3645860163708226</c:v>
+                        <c:v>1.1882637580983377</c:v>
                       </c:pt>
                       <c:pt idx="154">
-                        <c:v>1.3675881056068384</c:v>
+                        <c:v>1.1898085009838657</c:v>
                       </c:pt>
                       <c:pt idx="155">
-                        <c:v>1.3705967994391735</c:v>
+                        <c:v>1.1913552520351449</c:v>
                       </c:pt>
                       <c:pt idx="156">
-                        <c:v>1.3736121123979397</c:v>
+                        <c:v>1.1929040138627907</c:v>
                       </c:pt>
                       <c:pt idx="157">
-                        <c:v>1.3766340590452151</c:v>
+                        <c:v>1.1944547890808124</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>1.3796626539751145</c:v>
+                        <c:v>1.1960075803066175</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>1.3826979118138596</c:v>
+                        <c:v>1.1975623901610162</c:v>
                       </c:pt>
                       <c:pt idx="160">
-                        <c:v>1.3857398472198501</c:v>
+                        <c:v>1.1991192212682256</c:v>
                       </c:pt>
                       <c:pt idx="161">
-                        <c:v>1.3887884748837338</c:v>
+                        <c:v>1.2006780762558744</c:v>
                       </c:pt>
                       <c:pt idx="162">
-                        <c:v>1.391843809528478</c:v>
+                        <c:v>1.2022389577550072</c:v>
                       </c:pt>
                       <c:pt idx="163">
-                        <c:v>1.3949058659094407</c:v>
+                        <c:v>1.2038018684000888</c:v>
                       </c:pt>
                       <c:pt idx="164">
-                        <c:v>1.3979746588144415</c:v>
+                        <c:v>1.205366810829009</c:v>
                       </c:pt>
                       <c:pt idx="165">
-                        <c:v>1.4010502030638332</c:v>
+                        <c:v>1.2069337876830868</c:v>
                       </c:pt>
                       <c:pt idx="166">
-                        <c:v>1.4041325135105736</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>1.4072216050402968</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>1.4103174925713855</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>1.4134201910550426</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>1.4165297154753635</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>1.4196460808494094</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>1.422769302227278</c:v>
+                        <c:v>1.2085028016070749</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6644,15 +6479,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6682,15 +6517,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6705,8 +6540,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4743450" y="5505449"/>
-          <a:ext cx="5848350" cy="2981325"/>
+          <a:off x="4591050" y="5838824"/>
+          <a:ext cx="5848350" cy="4648201"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6751,11 +6586,36 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
+            <a:t>These are all ages, fixed cohorts, determined on 6/14/21.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The Norm factor is used to adjust the unvaxxed to both normalize</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> the slope and to set the correct height so that the baselines match exactly during the normalization period (same deaths).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
             <a:t>After</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> d2, deaths rose relative to the unvaxxed during baseline putting the vaccinated on a higher plateau.</a:t>
+            <a:t> d2, deaths rose relative to the unvaxxed during baseline putting the vaccinated on a higher plateau. This wasn't due to slope differences? </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6768,7 +6628,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
-            <a:t>That's the smoking gun. The unvaxxed fall as expected and the vaxxed don't.</a:t>
+            <a:t>That's the smoking gun. The unvaxxed fall as expected and the vaxxed don't. The unvaxxed were NOT falling due to selection bias because they stop falling, but the vaccinated keep dying at a higher rate.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6839,7 +6699,8 @@
       <sheetName val="negative sex all ages"/>
       <sheetName val="neg control sex with old"/>
       <sheetName val="neg control all vs. old"/>
-      <sheetName val="negative control 20 yr age diff"/>
+      <sheetName val="negative control NPH test"/>
+      <sheetName val="negative control 70 vs. 90"/>
       <sheetName val="negative control"/>
       <sheetName val="calc negative control"/>
       <sheetName val="ACM death chart"/>
@@ -6878,7 +6739,8 @@
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
         <row r="2">
           <cell r="B2">
             <v>-2.1582081963967834E-3</v>
@@ -6890,7 +6752,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6"/>
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
@@ -6920,6 +6781,7 @@
       <sheetData sheetId="33"/>
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7242,10 +7104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6839922-0018-4AC7-9E2A-AD27164D5E3A}">
-  <dimension ref="A1:L176"/>
+  <dimension ref="A1:L175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7255,7 +7117,7 @@
     <col min="12" max="12" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7272,16 +7134,19 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I1">
-        <v>1.0022</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0013000000000001</v>
+      </c>
+      <c r="K1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44361</v>
       </c>
@@ -7302,14 +7167,17 @@
         <v>1005.8751999999999</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="I2">
         <f>SUM(D5:D12)/SUM(F5:F12)</f>
-        <v>1.0004896614479766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.0062708123299171</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44368</v>
       </c>
@@ -7324,21 +7192,21 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E34" si="0">E2*$I$1</f>
-        <v>0.97494015999999994</v>
+        <v>0.97406464000000004</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F66" si="1">B3*E3</f>
-        <v>921.31845119999991</v>
+        <v>920.49108480000007</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="I3" s="4">
-        <f>D176/F176</f>
-        <v>1.1862397866373549</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <f>D169/F169</f>
+        <v>1.4603525786630414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44375</v>
       </c>
@@ -7353,17 +7221,17 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.97708502835199995</v>
+        <v>0.97533092403200017</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>869.60567523327995</v>
+        <v>868.04452238848012</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44382</v>
       </c>
@@ -7378,14 +7246,24 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.97923461541437429</v>
+        <v>0.97659885423324189</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>908.72972310453929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>906.2837367284485</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="4">
+        <f>D$82/F$82</f>
+        <v>1.311617646705475</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44389</v>
       </c>
@@ -7400,17 +7278,21 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.98138893156828588</v>
+        <v>0.97786843274374513</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>879.32448268518419</v>
-      </c>
-      <c r="H6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>876.17011573839568</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <f>CORREL($F106:$F169, $D106:$D169)</f>
+        <v>0.91492814733195649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44396</v>
       </c>
@@ -7425,17 +7307,21 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.98354798721773606</v>
+        <v>0.97913966170631206</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>854.70320089221264</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>850.87236602278517</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4">
+        <f>C$82/F$82</f>
+        <v>0.40685209805450084</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44403</v>
       </c>
@@ -7450,14 +7336,17 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.98571179278961507</v>
+        <v>0.98041254326653038</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>866.44066586207168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>861.78262553128025</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44410</v>
       </c>
@@ -7472,17 +7361,14 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.98788035873375224</v>
+        <v>0.9816870795727769</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>807.09825308547556</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>802.03834401095878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44417</v>
       </c>
@@ -7497,17 +7383,17 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.99005369552296651</v>
+        <v>0.98296327277622164</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>863.32682249602681</v>
+        <v>857.14397386086523</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44424</v>
       </c>
@@ -7522,14 +7408,17 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.99223181365311697</v>
+        <v>0.98424112503083083</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
-        <v>842.40480979149629</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>835.62071515117543</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44431</v>
       </c>
@@ -7544,17 +7433,17 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.99441472364315375</v>
+        <v>0.98552063849337102</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
-        <v>775.64348444165989</v>
+        <v>768.70609802482943</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44438</v>
       </c>
@@ -7569,17 +7458,17 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.99660243603516863</v>
+        <v>0.98680181532341249</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
-        <v>787.31592446778325</v>
+        <v>779.57343410549583</v>
       </c>
       <c r="H13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44445</v>
       </c>
@@ -7594,17 +7483,14 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.99879496139444601</v>
+        <v>0.98808465768333298</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
-        <v>808.02512376810682</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>799.36048806581641</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44452</v>
       </c>
@@ -7619,14 +7505,17 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.0009923103095137</v>
+        <v>0.9893691677383214</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
-        <v>879.87224076206257</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>869.65549844198449</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44459</v>
       </c>
@@ -7641,14 +7530,14 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.0031944933921946</v>
+        <v>0.9906553476563813</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
-        <v>884.81754317191564</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>13</v>
+        <v>873.75801663292827</v>
+      </c>
+      <c r="H16" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -7666,11 +7555,14 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.0054015212776575</v>
+        <v>0.99194319960833466</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
-        <v>825.43464896895682</v>
+        <v>814.38536687844271</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -7688,14 +7580,11 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>1.0076134046244682</v>
+        <v>0.99323272576782562</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
-        <v>818.18208455506817</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
+        <v>806.50497332347436</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -7713,14 +7602,14 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1.0098301541146422</v>
+        <v>0.99452392831132386</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
-        <v>892.68985623734363</v>
-      </c>
-      <c r="H19" t="s">
-        <v>15</v>
+        <v>879.15915262721023</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7738,14 +7627,11 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>1.0120517804536944</v>
+        <v>0.99581680941812867</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
-        <v>964.48534677237069</v>
-      </c>
-      <c r="H20" t="s">
-        <v>16</v>
+        <v>949.01341937547659</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -7763,11 +7649,14 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1.0142782943706925</v>
+        <v>0.9971113712703723</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
-        <v>1044.7066432018132</v>
+        <v>1027.0247124084835</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -7785,14 +7674,14 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>1.016509706618308</v>
+        <v>0.99840761605302386</v>
       </c>
       <c r="F22">
         <f t="shared" si="1"/>
-        <v>1136.4578519992683</v>
+        <v>1116.2197147472807</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -7810,14 +7699,14 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>1.0187460279728682</v>
+        <v>0.99970554595389283</v>
       </c>
       <c r="F23">
         <f t="shared" si="1"/>
-        <v>1284.6387412737868</v>
+        <v>1260.628693447859</v>
       </c>
       <c r="H23" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -7835,14 +7724,11 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>1.0209872692344084</v>
+        <v>1.001005163163633</v>
       </c>
       <c r="F24">
         <f t="shared" si="1"/>
-        <v>1439.5920496205158</v>
-      </c>
-      <c r="H24" t="s">
-        <v>19</v>
+        <v>1411.4172800607225</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -7860,11 +7746,14 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>1.0232334412267241</v>
+        <v>1.0023064698757458</v>
       </c>
       <c r="F25">
         <f t="shared" si="1"/>
-        <v>1507.2228589269646</v>
+        <v>1476.3974301269736</v>
+      </c>
+      <c r="H25" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -7882,14 +7771,14 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>1.025484554797423</v>
+        <v>1.0036094682865844</v>
       </c>
       <c r="F26">
         <f t="shared" si="1"/>
-        <v>1579.2462143880314</v>
+        <v>1545.55858116134</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -7907,14 +7796,14 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>1.0277406208179773</v>
+        <v>1.0049141605953571</v>
       </c>
       <c r="F27">
         <f t="shared" si="1"/>
-        <v>1598.1366653719547</v>
+        <v>1562.6415197257802</v>
       </c>
       <c r="H27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="L27">
         <v>0.9728</v>
@@ -7935,11 +7824,11 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>1.030001650183777</v>
+        <v>1.0062205490041312</v>
       </c>
       <c r="F28">
         <f t="shared" si="1"/>
-        <v>1517.1924307207034</v>
+        <v>1482.1628686830852</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -7957,11 +7846,14 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>1.0322676538141813</v>
+        <v>1.0075286357178366</v>
       </c>
       <c r="F29">
         <f t="shared" si="1"/>
-        <v>1383.2386561110029</v>
+        <v>1350.0883718619009</v>
+      </c>
+      <c r="H29" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -7979,11 +7871,11 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>1.0345386426525724</v>
+        <v>1.0088384229442697</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>1333.5203103791659</v>
+        <v>1300.3927271751636</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -8001,11 +7893,11 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>1.0368146276664081</v>
+        <v>1.0101499128940974</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>1230.6989630400265</v>
+        <v>1199.0479466052936</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -8023,11 +7915,11 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>1.0390956198472741</v>
+        <v>1.0114631077808598</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>1161.7089029892525</v>
+        <v>1130.8157544990013</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -8045,11 +7937,11 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>1.041381630210938</v>
+        <v>1.0127780098209751</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>1012.2229445650318</v>
+        <v>984.42022554598782</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -8067,11 +7959,11 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>1.0436726697974021</v>
+        <v>1.0140946212337425</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>1007.1441263544931</v>
+        <v>978.60130949056156</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -8089,11 +7981,11 @@
       </c>
       <c r="E35">
         <f t="shared" ref="E35:E66" si="2">E34*$I$1</f>
-        <v>1.0459687496709564</v>
+        <v>1.0154129442413464</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>1167.3011246327874</v>
+        <v>1133.2008457733425</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -8111,11 +8003,11 @@
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>1.0482698809202324</v>
+        <v>1.0167329810688603</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>1155.193408774096</v>
+        <v>1120.4397451378841</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -8133,11 +8025,11 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>1.0505760746582569</v>
+        <v>1.0180547339442498</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>1170.3417471692981</v>
+        <v>1134.1129736138944</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -8155,11 +8047,11 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>1.0528873420225051</v>
+        <v>1.0193782050983775</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>1105.5317091236304</v>
+        <v>1070.3471153532964</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -8177,11 +8069,11 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>1.0552036941749545</v>
+        <v>1.0207033967650054</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>1073.1421569759289</v>
+        <v>1038.0553545100106</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -8199,11 +8091,11 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>1.0575251423021395</v>
+        <v>1.0220303111808</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>1039.5472148830031</v>
+        <v>1004.6557958907264</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -8221,11 +8113,11 @@
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>1.0598516976152041</v>
+        <v>1.0233589505853351</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>962.34534143460542</v>
+        <v>929.20992713148428</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -8243,11 +8135,11 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>1.0621833713499576</v>
+        <v>1.024689317221096</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>1053.6859043791578</v>
+        <v>1016.4918026833273</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8265,11 +8157,11 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>1.0645201747669275</v>
+        <v>1.0260214133334835</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>1044.2942914463558</v>
+        <v>1006.5270064801473</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -8287,11 +8179,11 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>1.0668621191514147</v>
+        <v>1.0273552411708171</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>975.11197690439303</v>
+        <v>939.00269043012679</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -8309,11 +8201,11 @@
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>1.0692092158135478</v>
+        <v>1.0286908029843393</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>923.79676246290524</v>
+        <v>888.78885377846916</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -8331,11 +8223,11 @@
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>1.0715614760883376</v>
+        <v>1.0300281010282191</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>870.10791858373011</v>
+        <v>836.38281803491384</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -8353,11 +8245,11 @@
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>1.0739189113357319</v>
+        <v>1.0313671375595559</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>870.94823709327864</v>
+        <v>836.43874856079981</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8375,11 +8267,11 @@
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>1.0762815329406705</v>
+        <v>1.0327079148383833</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>923.44955526309536</v>
+        <v>886.06339093133283</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -8397,11 +8289,11 @@
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>1.07864935231314</v>
+        <v>1.0340504351276734</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>853.21163767969369</v>
+        <v>817.93389418598963</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -8419,11 +8311,11 @@
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>1.0810223808882289</v>
+        <v>1.0353947006933395</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>776.17406947774839</v>
+        <v>743.41339509781778</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -8441,11 +8333,11 @@
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>1.0834006301261829</v>
+        <v>1.0367407138042408</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>739.96263037618291</v>
+        <v>708.09390752829643</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8463,11 +8355,11 @@
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>1.0857841115124605</v>
+        <v>1.0380884767321865</v>
       </c>
       <c r="F52">
         <f t="shared" si="1"/>
-        <v>773.07828739687181</v>
+        <v>739.11899543331685</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -8485,11 +8377,11 @@
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>1.0881728365577878</v>
+        <v>1.0394379917519385</v>
       </c>
       <c r="F53">
         <f t="shared" si="1"/>
-        <v>796.54251636030074</v>
+        <v>760.86860996241899</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -8507,11 +8399,11 @@
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>1.090566816798215</v>
+        <v>1.0407892611412162</v>
       </c>
       <c r="F54">
         <f t="shared" si="1"/>
-        <v>777.57414037712726</v>
+        <v>742.08274319368718</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -8529,11 +8421,11 @@
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>1.092966063795171</v>
+        <v>1.0421422871806998</v>
       </c>
       <c r="F55">
         <f t="shared" si="1"/>
-        <v>782.56370167734246</v>
+        <v>746.17387762138105</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -8551,11 +8443,11 @@
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>1.0953705891355203</v>
+        <v>1.0434970721540349</v>
       </c>
       <c r="F56">
         <f t="shared" si="1"/>
-        <v>863.15202423878998</v>
+        <v>822.27569285737945</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -8573,11 +8465,11 @@
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>1.0977804044316184</v>
+        <v>1.0448536183478352</v>
       </c>
       <c r="F57">
         <f t="shared" si="1"/>
-        <v>754.17513784452183</v>
+        <v>717.81443580496273</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -8595,11 +8487,11 @@
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>1.1001955213213679</v>
+        <v>1.0462119280516875</v>
       </c>
       <c r="F58">
         <f t="shared" si="1"/>
-        <v>772.3372559676003</v>
+        <v>734.44077349228462</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -8617,11 +8509,11 @@
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>1.102615951468275</v>
+        <v>1.0475720035581548</v>
       </c>
       <c r="F59">
         <f t="shared" si="1"/>
-        <v>872.16921761140554</v>
+        <v>828.62945481450049</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -8639,11 +8531,11 @@
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>1.1050417065615052</v>
+        <v>1.0489338471627805</v>
       </c>
       <c r="F60">
         <f t="shared" si="1"/>
-        <v>867.4577396507816</v>
+        <v>823.41307002278268</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -8661,11 +8553,11 @@
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>1.1074727983159405</v>
+        <v>1.0502974611640923</v>
       </c>
       <c r="F61">
         <f t="shared" si="1"/>
-        <v>841.67932672011477</v>
+        <v>798.22607048471014</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -8683,11 +8575,11 @@
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>1.1099092384722355</v>
+        <v>1.0516628478636056</v>
       </c>
       <c r="F62">
         <f t="shared" si="1"/>
-        <v>897.91657392403852</v>
+        <v>850.79524392165695</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -8705,11 +8597,11 @@
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>1.1123510387968745</v>
+        <v>1.0530300095658285</v>
       </c>
       <c r="F63">
         <f t="shared" si="1"/>
-        <v>870.9708633779527</v>
+        <v>824.52249749004375</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -8727,11 +8619,11 @@
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>1.1147982110822277</v>
+        <v>1.0543989485782641</v>
       </c>
       <c r="F64">
         <f t="shared" si="1"/>
-        <v>861.73901716656201</v>
+        <v>815.05038725099814</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -8749,11 +8641,11 @@
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>1.1172507671466085</v>
+        <v>1.0557696672114159</v>
       </c>
       <c r="F65">
         <f t="shared" si="1"/>
-        <v>756.37876935825398</v>
+        <v>714.75606470212858</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -8771,11 +8663,11 @@
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>1.1197087188343311</v>
+        <v>1.0571421677787909</v>
       </c>
       <c r="F66">
         <f t="shared" si="1"/>
-        <v>920.40056688182017</v>
+        <v>868.97086191416611</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -8793,11 +8685,11 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E98" si="3">E66*$I$1</f>
-        <v>1.1221720780157667</v>
+        <v>1.0585164525969033</v>
       </c>
       <c r="F67">
         <f t="shared" ref="F67:F130" si="4">B67*E67</f>
-        <v>841.62905851182506</v>
+        <v>793.8873394476775</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -8815,11 +8707,11 @@
       </c>
       <c r="E68">
         <f t="shared" si="3"/>
-        <v>1.1246408565874013</v>
+        <v>1.0598925239852794</v>
       </c>
       <c r="F68">
         <f t="shared" si="4"/>
-        <v>931.20262925436828</v>
+        <v>877.59100985981138</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -8837,11 +8729,11 @@
       </c>
       <c r="E69">
         <f t="shared" si="3"/>
-        <v>1.1271150664718936</v>
+        <v>1.0612703842664604</v>
       </c>
       <c r="F69">
         <f t="shared" si="4"/>
-        <v>961.42915170052527</v>
+        <v>905.26363777929066</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -8859,11 +8751,11 @@
       </c>
       <c r="E70">
         <f t="shared" si="3"/>
-        <v>1.1295947196181317</v>
+        <v>1.0626500357660069</v>
       </c>
       <c r="F70">
         <f t="shared" si="4"/>
-        <v>1017.7648423759367</v>
+        <v>957.44768222517223</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -8881,11 +8773,11 @@
       </c>
       <c r="E71">
         <f t="shared" si="3"/>
-        <v>1.1320798280012916</v>
+        <v>1.0640314808125029</v>
       </c>
       <c r="F71">
         <f t="shared" si="4"/>
-        <v>1001.890647781143</v>
+        <v>941.66786051906502</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -8903,11 +8795,11 @@
       </c>
       <c r="E72">
         <f t="shared" si="3"/>
-        <v>1.1345704036228943</v>
+        <v>1.0654147217375591</v>
       </c>
       <c r="F72">
         <f t="shared" si="4"/>
-        <v>917.86745653092146</v>
+        <v>861.92050988568531</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -8925,11 +8817,11 @@
       </c>
       <c r="E73">
         <f t="shared" si="3"/>
-        <v>1.1370664585108647</v>
+        <v>1.066799760875818</v>
       </c>
       <c r="F73">
         <f t="shared" si="4"/>
-        <v>927.84623014486567</v>
+        <v>870.50860487466741</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -8947,11 +8839,11 @@
       </c>
       <c r="E74">
         <f t="shared" si="3"/>
-        <v>1.1395680047195886</v>
+        <v>1.0681866005649565</v>
       </c>
       <c r="F74">
         <f t="shared" si="4"/>
-        <v>871.76952361048529</v>
+        <v>817.16274943219173</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -8969,11 +8861,11 @@
       </c>
       <c r="E75">
         <f t="shared" si="3"/>
-        <v>1.1420750543299718</v>
+        <v>1.0695752431456911</v>
       </c>
       <c r="F75">
         <f t="shared" si="4"/>
-        <v>843.99346514984916</v>
+        <v>790.4161046846657</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -8991,11 +8883,11 @@
       </c>
       <c r="E76">
         <f t="shared" si="3"/>
-        <v>1.1445876194494977</v>
+        <v>1.0709656909617806</v>
       </c>
       <c r="F76">
         <f t="shared" si="4"/>
-        <v>844.70566315372935</v>
+        <v>790.37267992979412</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -9013,11 +8905,11 @@
       </c>
       <c r="E77">
         <f t="shared" si="3"/>
-        <v>1.1471057122122865</v>
+        <v>1.072357946360031</v>
       </c>
       <c r="F77">
         <f t="shared" si="4"/>
-        <v>926.86141546752754</v>
+        <v>866.46522065890508</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -9035,11 +8927,11 @@
       </c>
       <c r="E78">
         <f t="shared" si="3"/>
-        <v>1.1496293447791535</v>
+        <v>1.0737520116902992</v>
       </c>
       <c r="F78">
         <f t="shared" si="4"/>
-        <v>974.88568437272215</v>
+        <v>910.54170591337379</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -9057,11 +8949,11 @@
       </c>
       <c r="E79">
         <f t="shared" si="3"/>
-        <v>1.1521585293376675</v>
+        <v>1.0751478893054967</v>
       </c>
       <c r="F79">
         <f t="shared" si="4"/>
-        <v>983.94338405436804</v>
+        <v>918.17629746689408</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -9079,11 +8971,11 @@
       </c>
       <c r="E80">
         <f t="shared" si="3"/>
-        <v>1.1546932781022103</v>
+        <v>1.0765455815615939</v>
       </c>
       <c r="F80">
         <f t="shared" si="4"/>
-        <v>1041.5333368481938</v>
+        <v>971.04411456855769</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -9101,11 +8993,11 @@
       </c>
       <c r="E81">
         <f t="shared" si="3"/>
-        <v>1.1572336033140351</v>
+        <v>1.077945090817624</v>
       </c>
       <c r="F81">
         <f t="shared" si="4"/>
-        <v>1169.9631729504895</v>
+        <v>1089.8024868166178</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -9123,11 +9015,11 @@
       </c>
       <c r="E82">
         <f t="shared" si="3"/>
-        <v>1.1597795172413259</v>
+        <v>1.079346419435687</v>
       </c>
       <c r="F82">
         <f t="shared" si="4"/>
-        <v>1286.1954846206304</v>
+        <v>1196.9951791541769</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -9145,11 +9037,11 @@
       </c>
       <c r="E83">
         <f t="shared" si="3"/>
-        <v>1.1623310321792568</v>
+        <v>1.0807495697809535</v>
       </c>
       <c r="F83">
         <f t="shared" si="4"/>
-        <v>1162.3310321792569</v>
+        <v>1080.7495697809534</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -9167,11 +9059,11 @@
       </c>
       <c r="E84">
         <f t="shared" si="3"/>
-        <v>1.1648881604500512</v>
+        <v>1.0821545442216689</v>
       </c>
       <c r="F84">
         <f t="shared" si="4"/>
-        <v>1067.0375549722469</v>
+        <v>991.25356250704874</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -9189,11 +9081,11 @@
       </c>
       <c r="E85">
         <f t="shared" si="3"/>
-        <v>1.1674509144030412</v>
+        <v>1.0835613451291572</v>
       </c>
       <c r="F85">
         <f t="shared" si="4"/>
-        <v>991.16582632818199</v>
+        <v>919.94358201465445</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -9211,11 +9103,11 @@
       </c>
       <c r="E86">
         <f t="shared" si="3"/>
-        <v>1.1700193064147277</v>
+        <v>1.0849699748778252</v>
       </c>
       <c r="F86">
         <f t="shared" si="4"/>
-        <v>879.85451842387522</v>
+        <v>815.8974211081246</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -9233,11 +9125,11 @@
       </c>
       <c r="E87">
         <f t="shared" si="3"/>
-        <v>1.17259334888884</v>
+        <v>1.0863804358451665</v>
       </c>
       <c r="F87">
         <f t="shared" si="4"/>
-        <v>938.07467911107199</v>
+        <v>869.10434867613321</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -9255,11 +9147,11 @@
       </c>
       <c r="E88">
         <f t="shared" si="3"/>
-        <v>1.1751730542563954</v>
+        <v>1.0877927304117654</v>
       </c>
       <c r="F88">
         <f t="shared" si="4"/>
-        <v>926.03636675403959</v>
+        <v>857.18067156447114</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -9277,11 +9169,11 @@
       </c>
       <c r="E89">
         <f t="shared" si="3"/>
-        <v>1.1777584349757595</v>
+        <v>1.0892068609613008</v>
       </c>
       <c r="F89">
         <f t="shared" si="4"/>
-        <v>925.71812989094701</v>
+        <v>856.11659271558244</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -9299,11 +9191,11 @@
       </c>
       <c r="E90">
         <f t="shared" si="3"/>
-        <v>1.1803495035327061</v>
+        <v>1.0906228298805505</v>
       </c>
       <c r="F90">
         <f t="shared" si="4"/>
-        <v>900.60667119545474</v>
+        <v>832.14521919885999</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -9321,11 +9213,11 @@
       </c>
       <c r="E91">
         <f t="shared" si="3"/>
-        <v>1.182946272440478</v>
+        <v>1.0920406395593953</v>
       </c>
       <c r="F91">
         <f t="shared" si="4"/>
-        <v>915.60041486892999</v>
+        <v>845.23945501897197</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -9343,11 +9235,11 @@
       </c>
       <c r="E92">
         <f t="shared" si="3"/>
-        <v>1.1855487542398471</v>
+        <v>1.0934602923908225</v>
       </c>
       <c r="F92">
         <f t="shared" si="4"/>
-        <v>876.120529383247</v>
+        <v>808.06715607681781</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -9365,11 +9257,11 @@
       </c>
       <c r="E93">
         <f t="shared" si="3"/>
-        <v>1.1881569614991747</v>
+        <v>1.0948817907709307</v>
       </c>
       <c r="F93">
         <f t="shared" si="4"/>
-        <v>891.11772112438098</v>
+        <v>821.161343078198</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -9387,11 +9279,11 @@
       </c>
       <c r="E94">
         <f t="shared" si="3"/>
-        <v>1.190770906814473</v>
+        <v>1.096305137098933</v>
       </c>
       <c r="F94">
         <f t="shared" si="4"/>
-        <v>903.79511827218494</v>
+        <v>832.0955990580901</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -9409,11 +9301,11 @@
       </c>
       <c r="E95">
         <f t="shared" si="3"/>
-        <v>1.1933906028094647</v>
+        <v>1.0977303337771616</v>
       </c>
       <c r="F95">
         <f t="shared" si="4"/>
-        <v>886.68921788743228</v>
+        <v>815.61363799643107</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -9431,11 +9323,11 @@
       </c>
       <c r="E96">
         <f t="shared" si="3"/>
-        <v>1.1960160621356455</v>
+        <v>1.0991573832110719</v>
       </c>
       <c r="F96">
         <f t="shared" si="4"/>
-        <v>859.93554867552905</v>
+        <v>790.2941585287607</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -9453,11 +9345,11 @@
       </c>
       <c r="E97">
         <f t="shared" si="3"/>
-        <v>1.1986472974723439</v>
+        <v>1.1005862878092465</v>
       </c>
       <c r="F97">
         <f t="shared" si="4"/>
-        <v>861.82740688261526</v>
+        <v>791.32154093484826</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -9475,11 +9367,11 @@
       </c>
       <c r="E98">
         <f t="shared" si="3"/>
-        <v>1.201284321526783</v>
+        <v>1.1020170499833986</v>
       </c>
       <c r="F98">
         <f t="shared" si="4"/>
-        <v>849.30801531943553</v>
+        <v>779.12605433826275</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -9497,11 +9389,11 @@
       </c>
       <c r="E99">
         <f t="shared" ref="E99:E130" si="5">E98*$I$1</f>
-        <v>1.2039271470341419</v>
+        <v>1.1034496721483771</v>
       </c>
       <c r="F99">
         <f t="shared" si="4"/>
-        <v>803.01940707177266</v>
+        <v>736.00093132296752</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -9519,11 +9411,11 @@
       </c>
       <c r="E100">
         <f t="shared" si="5"/>
-        <v>1.206575786757617</v>
+        <v>1.1048841567221701</v>
       </c>
       <c r="F100">
         <f t="shared" si="4"/>
-        <v>896.48580956090939</v>
+        <v>820.92892844457242</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -9541,11 +9433,11 @@
       </c>
       <c r="E101">
         <f t="shared" si="5"/>
-        <v>1.2092302534884838</v>
+        <v>1.1063205061259089</v>
       </c>
       <c r="F101">
         <f t="shared" si="4"/>
-        <v>785.99966476751445</v>
+        <v>719.10832898184083</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -9563,11 +9455,11 @@
       </c>
       <c r="E102">
         <f t="shared" si="5"/>
-        <v>1.2118905600461585</v>
+        <v>1.1077587227838728</v>
       </c>
       <c r="F102">
         <f t="shared" si="4"/>
-        <v>832.56881475171087</v>
+        <v>761.03024255252058</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -9585,11 +9477,11 @@
       </c>
       <c r="E103">
         <f t="shared" si="5"/>
-        <v>1.21455671927826</v>
+        <v>1.1091988091234919</v>
       </c>
       <c r="F103">
         <f t="shared" si="4"/>
-        <v>801.60743472365164</v>
+        <v>732.0712140215046</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -9607,11 +9499,11 @@
       </c>
       <c r="E104">
         <f t="shared" si="5"/>
-        <v>1.2172287440606722</v>
+        <v>1.1106407675753525</v>
       </c>
       <c r="F104">
         <f t="shared" si="4"/>
-        <v>780.24362494289085</v>
+        <v>711.92073201580092</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -9629,11 +9521,11 @@
       </c>
       <c r="E105">
         <f t="shared" si="5"/>
-        <v>1.2199066472976057</v>
+        <v>1.1120846005732006</v>
       </c>
       <c r="F105">
         <f t="shared" si="4"/>
-        <v>836.85596004615752</v>
+        <v>762.89003599321563</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -9651,11 +9543,11 @@
       </c>
       <c r="E106">
         <f t="shared" si="5"/>
-        <v>1.2225904419216604</v>
+        <v>1.1135303105539458</v>
       </c>
       <c r="F106">
         <f t="shared" si="4"/>
-        <v>826.47113873904243</v>
+        <v>752.74648993446738</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -9673,11 +9565,11 @@
       </c>
       <c r="E107">
         <f t="shared" si="5"/>
-        <v>1.225280140893888</v>
+        <v>1.1149778999576661</v>
       </c>
       <c r="F107">
         <f t="shared" si="4"/>
-        <v>876.07530073912994</v>
+        <v>797.20919846973118</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -9695,11 +9587,11 @@
       </c>
       <c r="E108">
         <f t="shared" si="5"/>
-        <v>1.2279757572038545</v>
+        <v>1.1164273712276112</v>
       </c>
       <c r="F108">
         <f t="shared" si="4"/>
-        <v>811.69197551174784</v>
+        <v>737.95849238145092</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -9717,11 +9609,11 @@
       </c>
       <c r="E109">
         <f t="shared" si="5"/>
-        <v>1.230677303869703</v>
+        <v>1.1178787268102071</v>
       </c>
       <c r="F109">
         <f t="shared" si="4"/>
-        <v>792.55618369208867</v>
+        <v>719.9139000657733</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -9739,11 +9631,11 @@
       </c>
       <c r="E110">
         <f t="shared" si="5"/>
-        <v>1.2333847939382163</v>
+        <v>1.1193319691550605</v>
       </c>
       <c r="F110">
         <f t="shared" si="4"/>
-        <v>814.03396399922281</v>
+        <v>738.75909964233995</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -9761,11 +9653,11 @@
       </c>
       <c r="E111">
         <f t="shared" si="5"/>
-        <v>1.2360982404848804</v>
+        <v>1.1207871007149621</v>
       </c>
       <c r="F111">
         <f t="shared" si="4"/>
-        <v>808.40824927711174</v>
+        <v>732.99476386758522</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -9783,11 +9675,11 @@
       </c>
       <c r="E112">
         <f t="shared" si="5"/>
-        <v>1.238817656613947</v>
+        <v>1.1222441239458916</v>
       </c>
       <c r="F112">
         <f t="shared" si="4"/>
-        <v>719.75305849270319</v>
+        <v>652.02383601256304</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -9805,11 +9697,11 @@
       </c>
       <c r="E113">
         <f t="shared" si="5"/>
-        <v>1.2415430554584976</v>
+        <v>1.1237030413070213</v>
       </c>
       <c r="F113">
         <f t="shared" si="4"/>
-        <v>761.06589299605901</v>
+        <v>688.82996432120399</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -9827,11 +9719,11 @@
       </c>
       <c r="E114">
         <f t="shared" si="5"/>
-        <v>1.2442744501805063</v>
+        <v>1.1251638552607204</v>
       </c>
       <c r="F114">
         <f t="shared" si="4"/>
-        <v>808.77839261732913</v>
+        <v>731.35650591946819</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -9849,11 +9741,11 @@
       </c>
       <c r="E115">
         <f t="shared" si="5"/>
-        <v>1.2470118539709034</v>
+        <v>1.1266265682725594</v>
       </c>
       <c r="F115">
         <f t="shared" si="4"/>
-        <v>929.02383120832303</v>
+        <v>839.3367933630567</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -9871,11 +9763,11 @@
       </c>
       <c r="E116">
         <f t="shared" si="5"/>
-        <v>1.2497552800496394</v>
+        <v>1.1280911828113138</v>
       </c>
       <c r="F116">
         <f t="shared" si="4"/>
-        <v>843.58481403350663</v>
+        <v>761.46154839763688</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -9893,11 +9785,11 @@
       </c>
       <c r="E117">
         <f t="shared" si="5"/>
-        <v>1.2525047416657487</v>
+        <v>1.1295577013489686</v>
       </c>
       <c r="F117">
         <f t="shared" si="4"/>
-        <v>738.97779758279171</v>
+        <v>666.43904379589151</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -9915,11 +9807,11 @@
       </c>
       <c r="E118">
         <f t="shared" si="5"/>
-        <v>1.2552602520974132</v>
+        <v>1.1310261263607224</v>
       </c>
       <c r="F118">
         <f t="shared" si="4"/>
-        <v>802.11130109024703</v>
+        <v>722.72569474450165</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -9937,11 +9829,11 @@
       </c>
       <c r="E119">
         <f t="shared" si="5"/>
-        <v>1.2580218246520274</v>
+        <v>1.1324964603249914</v>
       </c>
       <c r="F119">
         <f t="shared" si="4"/>
-        <v>827.77836062103404</v>
+        <v>745.18267089384437</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -9959,11 +9851,11 @@
       </c>
       <c r="E120">
         <f t="shared" si="5"/>
-        <v>1.2607894726662618</v>
+        <v>1.133968705723414</v>
       </c>
       <c r="F120">
         <f t="shared" si="4"/>
-        <v>856.07605194039184</v>
+        <v>769.9647511861981</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -9981,11 +9873,11 @@
       </c>
       <c r="E121">
         <f t="shared" si="5"/>
-        <v>1.2635632095061275</v>
+        <v>1.1354428650408546</v>
       </c>
       <c r="F121">
         <f t="shared" si="4"/>
-        <v>822.57964938848909</v>
+        <v>739.1733051415963</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -10003,11 +9895,11 @@
       </c>
       <c r="E122">
         <f t="shared" si="5"/>
-        <v>1.2663430485670411</v>
+        <v>1.1369189407654077</v>
       </c>
       <c r="F122">
         <f t="shared" si="4"/>
-        <v>921.89773935680591</v>
+        <v>827.67698887721679</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -10025,11 +9917,11 @@
       </c>
       <c r="E123">
         <f t="shared" si="5"/>
-        <v>1.2691290032738884</v>
+        <v>1.1383969353884027</v>
       </c>
       <c r="F123">
         <f t="shared" si="4"/>
-        <v>921.38765637684298</v>
+        <v>826.47617509198039</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -10047,11 +9939,11 @@
       </c>
       <c r="E124">
         <f t="shared" si="5"/>
-        <v>1.2719210870810911</v>
+        <v>1.1398768514044078</v>
       </c>
       <c r="F124">
         <f t="shared" si="4"/>
-        <v>897.97628747925035</v>
+        <v>804.75305709151189</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -10069,11 +9961,11 @@
       </c>
       <c r="E125">
         <f t="shared" si="5"/>
-        <v>1.2747193134726695</v>
+        <v>1.1413586913112335</v>
       </c>
       <c r="F125">
         <f t="shared" si="4"/>
-        <v>903.7759932521227</v>
+        <v>809.22331213966447</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -10091,11 +9983,11 @@
       </c>
       <c r="E126">
         <f t="shared" si="5"/>
-        <v>1.2775236959623093</v>
+        <v>1.1428424576099381</v>
       </c>
       <c r="F126">
         <f t="shared" si="4"/>
-        <v>910.87439522112652</v>
+        <v>814.84667227588579</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -10113,11 +10005,11 @@
       </c>
       <c r="E127">
         <f t="shared" si="5"/>
-        <v>1.2803342480934263</v>
+        <v>1.144328152804831</v>
       </c>
       <c r="F127">
         <f t="shared" si="4"/>
-        <v>909.03731614633273</v>
+        <v>812.47298849142999</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -10135,11 +10027,11 @@
       </c>
       <c r="E128">
         <f t="shared" si="5"/>
-        <v>1.2831509834392318</v>
+        <v>1.1458157794034773</v>
       </c>
       <c r="F128">
         <f t="shared" si="4"/>
-        <v>961.08008659598465</v>
+        <v>858.2160187732045</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -10157,11 +10049,11 @@
       </c>
       <c r="E129">
         <f t="shared" si="5"/>
-        <v>1.2859739156027981</v>
+        <v>1.1473053399167019</v>
       </c>
       <c r="F129">
         <f t="shared" si="4"/>
-        <v>961.90848887089294</v>
+        <v>858.18439425769304</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -10179,11 +10071,11 @@
       </c>
       <c r="E130">
         <f t="shared" si="5"/>
-        <v>1.2888030582171242</v>
+        <v>1.1487968368585937</v>
       </c>
       <c r="F130">
         <f t="shared" si="4"/>
-        <v>1018.154415991528</v>
+        <v>907.54950111828896</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -10201,11 +10093,11 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E162" si="6">E130*$I$1</f>
-        <v>1.2916384249452018</v>
+        <v>1.1502902727465099</v>
       </c>
       <c r="F131">
         <f t="shared" ref="F131:F175" si="7">B131*E131</f>
-        <v>1077.2264464042983</v>
+        <v>959.34208747058926</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -10223,11 +10115,11 @@
       </c>
       <c r="E132">
         <f t="shared" si="6"/>
-        <v>1.2944800294800811</v>
+        <v>1.1517856501010804</v>
       </c>
       <c r="F132">
         <f t="shared" si="7"/>
-        <v>951.44282166785968</v>
+        <v>846.56245282429404</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -10245,11 +10137,11 @@
       </c>
       <c r="E133">
         <f t="shared" si="6"/>
-        <v>1.2973278855449373</v>
+        <v>1.1532829714462118</v>
       </c>
       <c r="F133">
         <f t="shared" si="7"/>
-        <v>1087.1607680866575</v>
+        <v>966.45113007192549</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -10267,11 +10159,11 @@
       </c>
       <c r="E134">
         <f t="shared" si="6"/>
-        <v>1.300182006893136</v>
+        <v>1.1547822393090921</v>
       </c>
       <c r="F134">
         <f t="shared" si="7"/>
-        <v>1051.847243576547</v>
+        <v>934.21883160105551</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -10289,11 +10181,11 @@
       </c>
       <c r="E135">
         <f t="shared" si="6"/>
-        <v>1.3030424073083009</v>
+        <v>1.156283456220194</v>
       </c>
       <c r="F135">
         <f t="shared" si="7"/>
-        <v>1013.7669928858581</v>
+        <v>899.58852893931089</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -10311,11 +10203,11 @@
       </c>
       <c r="E136">
         <f t="shared" si="6"/>
-        <v>1.305909100604379</v>
+        <v>1.1577866247132804</v>
       </c>
       <c r="F136">
         <f t="shared" si="7"/>
-        <v>924.58364322790032</v>
+        <v>819.71293029700257</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -10333,11 +10225,11 @@
       </c>
       <c r="E137">
         <f t="shared" si="6"/>
-        <v>1.3087821006257085</v>
+        <v>1.1592917473254079</v>
       </c>
       <c r="F137">
         <f t="shared" si="7"/>
-        <v>988.13048597240993</v>
+        <v>875.26526923068297</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -10355,11 +10247,11 @@
       </c>
       <c r="E138">
         <f t="shared" si="6"/>
-        <v>1.3116614212470852</v>
+        <v>1.1607988265969309</v>
       </c>
       <c r="F138">
         <f t="shared" si="7"/>
-        <v>991.61603446279639</v>
+        <v>877.56391290727981</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -10377,11 +10269,11 @@
       </c>
       <c r="E139">
         <f t="shared" si="6"/>
-        <v>1.3145470763738287</v>
+        <v>1.1623078650715071</v>
       </c>
       <c r="F139">
         <f t="shared" si="7"/>
-        <v>983.28121312762391</v>
+        <v>869.40628307348732</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -10399,11 +10291,11 @@
       </c>
       <c r="E140">
         <f t="shared" si="6"/>
-        <v>1.3174390799418512</v>
+        <v>1.1638188652961001</v>
       </c>
       <c r="F140">
         <f t="shared" si="7"/>
-        <v>1018.3804087950509</v>
+        <v>899.63198287388536</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -10421,11 +10313,11 @@
       </c>
       <c r="E141">
         <f t="shared" si="6"/>
-        <v>1.3203374459177233</v>
+        <v>1.1653318298209852</v>
       </c>
       <c r="F141">
         <f t="shared" si="7"/>
-        <v>916.31418746689997</v>
+        <v>808.74028989576368</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -10443,11 +10335,11 @@
       </c>
       <c r="E142">
         <f t="shared" si="6"/>
-        <v>1.3232421882987422</v>
+        <v>1.1668467611997526</v>
       </c>
       <c r="F142">
         <f t="shared" si="7"/>
-        <v>879.95605521866355</v>
+        <v>775.95309619783552</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -10465,11 +10357,11 @@
       </c>
       <c r="E143">
         <f t="shared" si="6"/>
-        <v>1.3261533211129994</v>
+        <v>1.1683636619893123</v>
       </c>
       <c r="F143">
         <f t="shared" si="7"/>
-        <v>795.6919926677997</v>
+        <v>701.01819719358741</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -10487,11 +10379,11 @@
       </c>
       <c r="E144">
         <f t="shared" si="6"/>
-        <v>1.3290708584194479</v>
+        <v>1.1698825347498985</v>
       </c>
       <c r="F144">
         <f t="shared" si="7"/>
-        <v>905.09725458364403</v>
+        <v>796.69000616468088</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -10509,11 +10401,11 @@
       </c>
       <c r="E145">
         <f t="shared" si="6"/>
-        <v>1.3319948143079707</v>
+        <v>1.1714033820450733</v>
       </c>
       <c r="F145">
         <f t="shared" si="7"/>
-        <v>855.14067078571725</v>
+        <v>752.0409712729371</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -10531,11 +10423,11 @@
       </c>
       <c r="E146">
         <f t="shared" si="6"/>
-        <v>1.3349252028994483</v>
+        <v>1.1729262064417321</v>
       </c>
       <c r="F146">
         <f t="shared" si="7"/>
-        <v>836.99810221795406</v>
+        <v>735.42473143896598</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -10553,11 +10445,11 @@
       </c>
       <c r="E147">
         <f t="shared" si="6"/>
-        <v>1.3378620383458271</v>
+        <v>1.1744510105101065</v>
       </c>
       <c r="F147">
         <f t="shared" si="7"/>
-        <v>830.81232581275856</v>
+        <v>729.33407752677613</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -10575,11 +10467,11 @@
       </c>
       <c r="E148">
         <f t="shared" si="6"/>
-        <v>1.3408053348301878</v>
+        <v>1.1759777968237697</v>
       </c>
       <c r="F148">
         <f t="shared" si="7"/>
-        <v>812.5280329070938</v>
+        <v>712.64254487520441</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -10597,11 +10489,11 @@
       </c>
       <c r="E149">
         <f t="shared" si="6"/>
-        <v>1.3437551065668143</v>
+        <v>1.1775065679596406</v>
       </c>
       <c r="F149">
         <f t="shared" si="7"/>
-        <v>833.12816607142486</v>
+        <v>730.05407213497722</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -10619,11 +10511,11 @@
       </c>
       <c r="E150">
         <f t="shared" si="6"/>
-        <v>1.3467113678012612</v>
+        <v>1.1790373264979883</v>
       </c>
       <c r="F150">
         <f t="shared" si="7"/>
-        <v>849.77487308259583</v>
+        <v>743.97255302023063</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -10641,11 +10533,11 @@
       </c>
       <c r="E151">
         <f t="shared" si="6"/>
-        <v>1.349674132810424</v>
+        <v>1.1805700750224357</v>
       </c>
       <c r="F151">
         <f t="shared" si="7"/>
-        <v>750.41881784259579</v>
+        <v>656.39696171247431</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -10663,11 +10555,11 @@
       </c>
       <c r="E152">
         <f t="shared" si="6"/>
-        <v>1.3526434159026068</v>
+        <v>1.182104816119965</v>
       </c>
       <c r="F152">
         <f t="shared" si="7"/>
-        <v>803.47018904614845</v>
+        <v>702.17026077525918</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -10685,11 +10577,11 @@
       </c>
       <c r="E153">
         <f t="shared" si="6"/>
-        <v>1.3556192314175926</v>
+        <v>1.1836415523809209</v>
       </c>
       <c r="F153">
         <f t="shared" si="7"/>
-        <v>802.52658499921483</v>
+        <v>700.71579900950519</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -10707,11 +10599,11 @@
       </c>
       <c r="E154">
         <f t="shared" si="6"/>
-        <v>1.3586015937267113</v>
+        <v>1.1851802863990162</v>
       </c>
       <c r="F154">
         <f t="shared" si="7"/>
-        <v>802.93354189248635</v>
+        <v>700.44154926181852</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -10729,11 +10621,11 @@
       </c>
       <c r="E155">
         <f t="shared" si="6"/>
-        <v>1.3615905172329101</v>
+        <v>1.186721020771335</v>
       </c>
       <c r="F155">
         <f t="shared" si="7"/>
-        <v>822.40067240867768</v>
+        <v>716.77949654588633</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -10751,11 +10643,11 @@
       </c>
       <c r="E156">
         <f t="shared" si="6"/>
-        <v>1.3645860163708226</v>
+        <v>1.1882637580983377</v>
       </c>
       <c r="F156">
         <f t="shared" si="7"/>
-        <v>833.76205600257254</v>
+        <v>726.02915619808437</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -10773,11 +10665,11 @@
       </c>
       <c r="E157">
         <f t="shared" si="6"/>
-        <v>1.3675881056068384</v>
+        <v>1.1898085009838657</v>
       </c>
       <c r="F157">
         <f t="shared" si="7"/>
-        <v>798.67145367439366</v>
+        <v>694.84816457457759</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -10795,11 +10687,11 @@
       </c>
       <c r="E158">
         <f t="shared" si="6"/>
-        <v>1.3705967994391735</v>
+        <v>1.1913552520351449</v>
       </c>
       <c r="F158">
         <f t="shared" si="7"/>
-        <v>768.9048044853763</v>
+        <v>668.35029639171626</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -10817,11 +10709,11 @@
       </c>
       <c r="E159">
         <f t="shared" si="6"/>
-        <v>1.3736121123979397</v>
+        <v>1.1929040138627907</v>
       </c>
       <c r="F159">
         <f t="shared" si="7"/>
-        <v>848.89228546192669</v>
+        <v>737.2146805672046</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -10839,11 +10731,11 @@
       </c>
       <c r="E160">
         <f t="shared" si="6"/>
-        <v>1.3766340590452151</v>
+        <v>1.1944547890808124</v>
       </c>
       <c r="F160">
         <f t="shared" si="7"/>
-        <v>803.95429048240555</v>
+        <v>697.56159682319446</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -10861,11 +10753,11 @@
       </c>
       <c r="E161">
         <f t="shared" si="6"/>
-        <v>1.3796626539751145</v>
+        <v>1.1960075803066175</v>
       </c>
       <c r="F161">
         <f t="shared" si="7"/>
-        <v>696.72964025743283</v>
+        <v>603.98382805484187</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -10883,11 +10775,11 @@
       </c>
       <c r="E162">
         <f t="shared" si="6"/>
-        <v>1.3826979118138596</v>
+        <v>1.1975623901610162</v>
       </c>
       <c r="F162">
         <f t="shared" si="7"/>
-        <v>806.11288258748016</v>
+        <v>698.17887346387238</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -10905,11 +10797,11 @@
       </c>
       <c r="E163">
         <f t="shared" ref="E163:E175" si="8">E162*$I$1</f>
-        <v>1.3857398472198501</v>
+        <v>1.1991192212682256</v>
       </c>
       <c r="F163">
         <f t="shared" si="7"/>
-        <v>710.88454162378309</v>
+        <v>615.14816051059972</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -10927,11 +10819,11 @@
       </c>
       <c r="E164">
         <f t="shared" si="8"/>
-        <v>1.3887884748837338</v>
+        <v>1.2006780762558744</v>
       </c>
       <c r="F164">
         <f t="shared" si="7"/>
-        <v>734.66910321349519</v>
+        <v>635.15870233935755</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -10949,11 +10841,11 @@
       </c>
       <c r="E165">
         <f t="shared" si="8"/>
-        <v>1.391843809528478</v>
+        <v>1.2022389577550072</v>
       </c>
       <c r="F165">
         <f t="shared" si="7"/>
-        <v>755.77118857396351</v>
+        <v>652.81575406096897</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -10971,11 +10863,11 @@
       </c>
       <c r="E166">
         <f t="shared" si="8"/>
-        <v>1.3949058659094407</v>
+        <v>1.2038018684000888</v>
       </c>
       <c r="F166">
         <f t="shared" si="7"/>
-        <v>693.26821535699196</v>
+        <v>598.28952859484411</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -10993,11 +10885,11 @@
       </c>
       <c r="E167">
         <f t="shared" si="8"/>
-        <v>1.3979746588144415</v>
+        <v>1.205366810829009</v>
       </c>
       <c r="F167">
         <f t="shared" si="7"/>
-        <v>654.25214032515862</v>
+        <v>564.11166746797619</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -11015,11 +10907,11 @@
       </c>
       <c r="E168">
         <f t="shared" si="8"/>
-        <v>1.4010502030638332</v>
+        <v>1.2069337876830868</v>
       </c>
       <c r="F168">
         <f t="shared" si="7"/>
-        <v>644.48309340936328</v>
+        <v>555.18954233421994</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -11037,160 +10929,36 @@
       </c>
       <c r="E169">
         <f t="shared" si="8"/>
-        <v>1.4041325135105736</v>
+        <v>1.2085028016070749</v>
       </c>
       <c r="F169">
         <f t="shared" si="7"/>
-        <v>615.01004091763127</v>
+        <v>529.32422710389881</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
-        <v>45537</v>
-      </c>
-      <c r="B170">
-        <v>289</v>
-      </c>
-      <c r="C170">
-        <v>147</v>
-      </c>
-      <c r="D170">
-        <v>520</v>
-      </c>
-      <c r="E170">
-        <f t="shared" si="8"/>
-        <v>1.4072216050402968</v>
-      </c>
-      <c r="F170">
-        <f t="shared" si="7"/>
-        <v>406.6870438566458</v>
-      </c>
+      <c r="A170" s="3"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
-        <v>45544</v>
-      </c>
-      <c r="B171">
-        <v>278</v>
-      </c>
-      <c r="C171">
-        <v>140</v>
-      </c>
-      <c r="D171">
-        <v>524</v>
-      </c>
-      <c r="E171">
-        <f t="shared" si="8"/>
-        <v>1.4103174925713855</v>
-      </c>
-      <c r="F171">
-        <f t="shared" si="7"/>
-        <v>392.06826293484517</v>
-      </c>
+      <c r="A171" s="3"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
-        <v>45551</v>
-      </c>
-      <c r="B172">
-        <v>207</v>
-      </c>
-      <c r="C172">
-        <v>130</v>
-      </c>
-      <c r="D172">
-        <v>363</v>
-      </c>
-      <c r="E172">
-        <f t="shared" si="8"/>
-        <v>1.4134201910550426</v>
-      </c>
-      <c r="F172">
-        <f t="shared" si="7"/>
-        <v>292.57797954839378</v>
-      </c>
+      <c r="A172" s="3"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
-        <v>45558</v>
-      </c>
-      <c r="B173">
-        <v>208</v>
-      </c>
-      <c r="C173">
-        <v>95</v>
-      </c>
-      <c r="D173">
-        <v>330</v>
-      </c>
-      <c r="E173">
-        <f t="shared" si="8"/>
-        <v>1.4165297154753635</v>
-      </c>
-      <c r="F173">
-        <f t="shared" si="7"/>
-        <v>294.63818081887564</v>
-      </c>
+      <c r="A173" s="3"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
-        <v>45565</v>
-      </c>
-      <c r="B174">
-        <v>93</v>
-      </c>
-      <c r="C174">
-        <v>47</v>
-      </c>
-      <c r="D174">
-        <v>135</v>
-      </c>
-      <c r="E174">
-        <f t="shared" si="8"/>
-        <v>1.4196460808494094</v>
-      </c>
-      <c r="F174">
-        <f t="shared" si="7"/>
-        <v>132.02708551899508</v>
-      </c>
+      <c r="A174" s="3"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
-        <v>45572</v>
-      </c>
-      <c r="B175">
-        <v>20</v>
-      </c>
-      <c r="C175">
-        <v>3</v>
-      </c>
-      <c r="D175">
-        <v>25</v>
-      </c>
-      <c r="E175">
-        <f t="shared" si="8"/>
-        <v>1.422769302227278</v>
-      </c>
-      <c r="F175">
-        <f t="shared" si="7"/>
-        <v>28.455386044545563</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D176">
-        <f>SUM(D5:D175)</f>
-        <v>181570</v>
-      </c>
-      <c r="F176">
-        <f>SUM(F5:F175)</f>
-        <v>153063.48855040362</v>
-      </c>
+      <c r="A175" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{F6839922-0018-4AC7-9E2A-AD27164D5E3A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="I2" formulaRange="1"/>
+    <ignoredError sqref="I2 I6" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11208,37 +10976,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/KCOR_simplified_Czech_data.xlsx
+++ b/KCOR_simplified_Czech_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stk\Documents\GitHub\KCOR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF8B5D8-B7BB-4E88-86D1-2FCCEB5A7372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D0FF24-C9AC-44CD-8FA2-6E0F1987F039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8B0A3727-7EFD-4AFF-B4BD-EAE44F456855}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="29040" windowHeight="15720" xr2:uid="{8B0A3727-7EFD-4AFF-B4BD-EAE44F456855}"/>
   </bookViews>
   <sheets>
     <sheet name="Czech all ages" sheetId="2" r:id="rId1"/>
@@ -6696,6 +6696,8 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="KCOR v3 algorithm"/>
+      <sheetName val="Under 80"/>
+      <sheetName val="anal-2021-24"/>
       <sheetName val="negative sex all ages"/>
       <sheetName val="neg control sex with old"/>
       <sheetName val="neg control all vs. old"/>
@@ -6704,7 +6706,6 @@
       <sheetName val="negative control"/>
       <sheetName val="calc negative control"/>
       <sheetName val="ACM death chart"/>
-      <sheetName val="anal-2021-24"/>
       <sheetName val="calc-2021-24"/>
       <sheetName val="anal-2022-06"/>
       <sheetName val="calc-2022-06"/>
@@ -6740,7 +6741,9 @@
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8">
         <row r="2">
           <cell r="B2">
             <v>-2.1582081963967834E-3</v>
@@ -6752,8 +6755,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
@@ -6782,6 +6783,7 @@
       <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
       <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
